--- a/html/cms/static/file/expendTemplate.xlsx
+++ b/html/cms/static/file/expendTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>时间</t>
   </si>
@@ -41,6 +41,9 @@
     <t>财务部</t>
   </si>
   <si>
+    <t>请将参考数据删除</t>
+  </si>
+  <si>
     <t>JFXXXXXXXX002</t>
   </si>
   <si>
@@ -54,69 +57,6 @@
   </si>
   <si>
     <t>话费</t>
-  </si>
-  <si>
-    <t>JFXXXXXXXX004</t>
-  </si>
-  <si>
-    <t>团建</t>
-  </si>
-  <si>
-    <t>成本控制部</t>
-  </si>
-  <si>
-    <t>JFXXXXXXXX005</t>
-  </si>
-  <si>
-    <t>宣传支出</t>
-  </si>
-  <si>
-    <t>招商运营部</t>
-  </si>
-  <si>
-    <t>JFXXXXXXXX006</t>
-  </si>
-  <si>
-    <t>资产管理部</t>
-  </si>
-  <si>
-    <t>JFXXXXXXXX007</t>
-  </si>
-  <si>
-    <t>车费</t>
-  </si>
-  <si>
-    <t>投资管理部</t>
-  </si>
-  <si>
-    <t>JFXXXXXXXX008</t>
-  </si>
-  <si>
-    <t>规划建设部</t>
-  </si>
-  <si>
-    <t>JFXXXXXXXX009</t>
-  </si>
-  <si>
-    <t>紫云建设公司</t>
-  </si>
-  <si>
-    <t>JFXXXXXXXX010</t>
-  </si>
-  <si>
-    <t>办公费</t>
-  </si>
-  <si>
-    <t>永智建设公司</t>
-  </si>
-  <si>
-    <t>JFXXXXXXXX011</t>
-  </si>
-  <si>
-    <t>创业公司</t>
-  </si>
-  <si>
-    <t>JFXXXXXXXX012</t>
   </si>
 </sst>
 </file>
@@ -125,11 +65,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,7 +81,23 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,6 +108,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -160,29 +144,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,43 +175,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,103 +244,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,19 +382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,43 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,17 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,16 +494,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,137 +583,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,6 +727,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,19 +1054,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="19.9" customHeight="1" spans="1:5">
@@ -1133,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="4">
         <v>201901</v>
       </c>
@@ -1149,196 +1103,51 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" ht="13" customHeight="1" spans="1:5">
+    <row r="3" ht="13" customHeight="1" spans="1:6">
       <c r="A3" s="4">
         <v>201902</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>201903</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:5">
-      <c r="A5" s="4">
-        <v>201904</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
-        <v>800</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>201905</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4">
-        <v>400</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
-        <v>201906</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4">
-        <v>401</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
-        <v>201907</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4">
-        <v>402</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4">
-        <v>201908</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4">
-        <v>403</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4">
-        <v>201909</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4">
-        <v>404</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
-        <v>201910</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4">
-        <v>405</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
-        <v>201911</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4">
-        <v>406</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4">
-        <v>201912</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4">
-        <v>407</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="6"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" insertColumns="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F4"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
